--- a/Defense Heroes/Assets/Resources/map.xlsx
+++ b/Defense Heroes/Assets/Resources/map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="4">
   <si>
     <t>m</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,7 +472,7 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -536,8 +536,11 @@
       <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,8 +604,11 @@
       <c r="U2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -666,8 +672,11 @@
       <c r="U3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,8 +740,11 @@
       <c r="U4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -796,8 +808,11 @@
       <c r="U5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -861,8 +876,11 @@
       <c r="U6" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -926,8 +944,11 @@
       <c r="U7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -991,8 +1012,11 @@
       <c r="U8" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1080,11 @@
       <c r="U9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1121,8 +1148,11 @@
       <c r="U10" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1186,8 +1216,11 @@
       <c r="U11" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1284,11 @@
       <c r="U12" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1316,8 +1352,11 @@
       <c r="U13" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1381,8 +1420,11 @@
       <c r="U14" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1446,8 +1488,11 @@
       <c r="U15" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1511,8 +1556,11 @@
       <c r="U16" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1576,8 +1624,11 @@
       <c r="U17" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1641,8 +1692,11 @@
       <c r="U18" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1706,8 +1760,11 @@
       <c r="U19" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1771,8 +1828,11 @@
       <c r="U20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1834,6 +1894,9 @@
         <v>2</v>
       </c>
       <c r="U21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Defense Heroes/Assets/Resources/map.xlsx
+++ b/Defense Heroes/Assets/Resources/map.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="22">
   <si>
     <t>m</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -33,12 +34,100 @@
     <t>p</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사,성기사,마법사,용기병,투석기 등장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">t1 -n필드에만 세울 수 있는 고정형 타워
+사거리도 준수하고 공격속도가 빠르고 공격력은 보통
+t2 -b블록위에서만 좌우 상하로 3칸씩 순회하다 범위에 적이들어오면 공격을 한다. 
+공격을 시작하면 이동범위내에서 적과의 일정거리(2칸)를 유지하는 속도로 따라가며 공격을 한다.
+이동속도와 공격속도는 빠르지만 공격력이 약간 낮음
+t3 -성곽에만 배치할 수있는 고정형 타워
+사거리가 가장 길고 유일하게 공중공격가능
+공중만 공격가능하며 공격속도는 느리지만 데미지가 높은편
+t4 -성곽에만 배치할 수 있는 고정형 타워
+사거리는 짧고 공격속도도 느리지만 가장 강한 공격을 하며 스플래시가 존재
+스테이지,웨이브마다 포인트가 있고 타워마다 소모포이트존재
+t1 -1p
+t2 -2p
+t3 -3p
+t4 -2p
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사,성기사,마법사,용기병,그리폰 등장
+등장 시간과 수량 체력 이동속도 공격력등 밸런스 맞춰야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cru</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>clu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cld</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +167,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +196,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +276,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -171,6 +313,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>192224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676273" y="3571874"/>
+          <a:ext cx="1504951" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="26000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819401" y="3810000"/>
+          <a:ext cx="1190624" cy="1011375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="26000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743201" y="5553075"/>
+          <a:ext cx="1333500" cy="1287599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="26000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="1676400"/>
+          <a:ext cx="2381250" cy="2268675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="26000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1909,26 +2300,2048 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="15" width="2.875" customWidth="1"/>
+    <col min="16" max="21" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:S25"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="15" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:O26"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="19" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+    </row>
+    <row r="7" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="6:25" x14ac:dyDescent="0.3">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="20:25" x14ac:dyDescent="0.3">
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T1:Y24"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>